--- a/TickerUniverse.xlsx
+++ b/TickerUniverse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeeexuan/Desktop/ST GALLEN MATLAB/Project/MATLAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8206C1F8-5BFC-3848-BB3E-4F50A0A65F89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E8D8E0-E4A5-F646-97CD-3926AA7A0940}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39428,8 +39428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
